--- a/resource/fmt_issue-sheet.xlsx
+++ b/resource/fmt_issue-sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a2130400\Desktop\2130400_本間弘規\04.CB推\03.計測\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a2130400\Desktop\2130400_本間弘規\04.CB推\03.計測\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="82">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -216,10 +216,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t xml:space="preserve">　└ </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>&lt;インパクト&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1116,6 +1112,14 @@
   </si>
   <si>
     <t>対応済</t>
+  </si>
+  <si>
+    <t>　└  https://github.com/hirokihonma/issue-sheet/blob/master/resource/fmt_issue-sheet.xlsx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　└ https://github.com/hirokihonma/issue-sheet/wiki/How-to-Excel-FMT</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1384,21 +1388,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1408,11 +1397,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="4">
     <dxf>
       <font>
         <b/>
@@ -1448,44 +1452,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1796,30 +1762,30 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
       <c r="F5" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
       <c r="K5" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L5" s="21"/>
       <c r="M5" s="21"/>
       <c r="N5" s="21"/>
       <c r="P5" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="21"/>
       <c r="R5" s="21"/>
@@ -1827,78 +1793,78 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
       <c r="F6" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
       <c r="K6" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
       <c r="P6" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q6" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="Q6" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="27">
         <v>1</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
+      <c r="B7" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
       <c r="F7" s="27">
         <v>1</v>
       </c>
-      <c r="G7" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
+      <c r="G7" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
       <c r="K7" s="27">
         <v>1</v>
       </c>
-      <c r="L7" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
+      <c r="L7" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
       <c r="P7" s="27">
         <v>1</v>
       </c>
-      <c r="Q7" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="R7" s="36"/>
-      <c r="S7" s="36"/>
+      <c r="Q7" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="28">
         <v>2</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="32"/>
       <c r="D8" s="32"/>
@@ -1906,7 +1872,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8" s="32"/>
       <c r="I8" s="32"/>
@@ -1914,7 +1880,7 @@
         <v>2</v>
       </c>
       <c r="L8" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M8" s="32"/>
       <c r="N8" s="32"/>
@@ -1922,7 +1888,7 @@
         <v>2</v>
       </c>
       <c r="Q8" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R8" s="32"/>
       <c r="S8" s="32"/>
@@ -1932,7 +1898,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="32"/>
       <c r="D9" s="32"/>
@@ -1940,7 +1906,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H9" s="32"/>
       <c r="I9" s="32"/>
@@ -1948,7 +1914,7 @@
         <v>3</v>
       </c>
       <c r="L9" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M9" s="32"/>
       <c r="N9" s="32"/>
@@ -1956,7 +1922,7 @@
         <v>3</v>
       </c>
       <c r="Q9" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R9" s="32"/>
       <c r="S9" s="32"/>
@@ -1966,7 +1932,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
@@ -1974,7 +1940,7 @@
         <v>4</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H10" s="32"/>
       <c r="I10" s="32"/>
@@ -1982,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="L10" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M10" s="32"/>
       <c r="N10" s="32"/>
@@ -1990,7 +1956,7 @@
         <v>4</v>
       </c>
       <c r="Q10" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R10" s="32"/>
       <c r="S10" s="32"/>
@@ -1999,35 +1965,35 @@
       <c r="A11" s="24">
         <v>5</v>
       </c>
-      <c r="B11" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
+      <c r="B11" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
       <c r="F11" s="24">
         <v>5</v>
       </c>
-      <c r="G11" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
+      <c r="G11" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
       <c r="K11" s="24">
         <v>5</v>
       </c>
-      <c r="L11" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
+      <c r="L11" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
       <c r="P11" s="24">
         <v>5</v>
       </c>
-      <c r="Q11" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
+      <c r="Q11" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="25"/>
@@ -2049,18 +2015,18 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
       <c r="K14" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L14" s="25"/>
       <c r="M14" s="25"/>
@@ -2068,66 +2034,66 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
+        <v>52</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
       <c r="K15" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="L15" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
+        <v>52</v>
+      </c>
+      <c r="L15" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
+        <v>51</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
       <c r="K16" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="L16" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
+        <v>51</v>
+      </c>
+      <c r="L16" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" s="32"/>
       <c r="D17" s="32"/>
@@ -2137,10 +2103,10 @@
       <c r="H17" s="32"/>
       <c r="I17" s="32"/>
       <c r="K17" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L17" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M17" s="32"/>
       <c r="N17" s="32"/>
@@ -2152,10 +2118,10 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" s="32"/>
       <c r="D18" s="32"/>
@@ -2165,10 +2131,10 @@
       <c r="H18" s="32"/>
       <c r="I18" s="32"/>
       <c r="K18" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L18" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M18" s="32"/>
       <c r="N18" s="32"/>
@@ -2180,95 +2146,95 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
+        <v>55</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
       <c r="K19" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="L19" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
+        <v>55</v>
+      </c>
+      <c r="L19" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -2283,7 +2249,7 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -2293,12 +2259,34 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="L15:S15"/>
+    <mergeCell ref="L16:S16"/>
+    <mergeCell ref="L17:S17"/>
+    <mergeCell ref="L18:S18"/>
+    <mergeCell ref="L19:S19"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="Q10:S10"/>
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
@@ -2311,28 +2299,6 @@
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="G10:I10"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="L15:S15"/>
-    <mergeCell ref="L16:S16"/>
-    <mergeCell ref="L17:S17"/>
-    <mergeCell ref="L18:S18"/>
-    <mergeCell ref="L19:S19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2382,10 +2348,10 @@
         <v>12</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J1" s="16" t="s">
         <v>13</v>
@@ -2408,7 +2374,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" s="8">
         <v>44036</v>
@@ -4633,18 +4599,18 @@
   <autoFilter ref="A1:L102"/>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A2:L102">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$D2="対応済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$D2="対応中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F102">
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>$F2&gt;=16</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>$F2&gt;=12</formula>
     </cfRule>
   </conditionalFormatting>
